--- a/event/templates/import_cont.xlsx
+++ b/event/templates/import_cont.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/distr/attendly/event/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7E3380-A05C-8243-B9E7-1C947FDE257D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720DE9E9-C8BF-4007-AC3E-2FBF1057FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Contacts" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Билайн</t>
-  </si>
-  <si>
     <t>nickname</t>
   </si>
   <si>
@@ -94,13 +91,16 @@
     <t>Создаст контакт Вакуленко Василий и добавит контакт инстаграм</t>
   </si>
   <si>
-    <t>Обновит контакт Вакуленко Василий и добавит онтакт инстаграм</t>
-  </si>
-  <si>
     <t>Telegram</t>
   </si>
   <si>
     <t>Instagram</t>
+  </si>
+  <si>
+    <t>Обновит контакт Вакуленко Василий и добавит контакт телеграм</t>
+  </si>
+  <si>
+    <t>VK Video</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,23 +457,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -493,95 +494,95 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
       <c r="J4" s="3">
         <v>1234567890</v>

--- a/event/templates/import_cont.xlsx
+++ b/event/templates/import_cont.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/distr/attendly/event/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720DE9E9-C8BF-4007-AC3E-2FBF1057FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABA864-054F-644C-87A0-421E0284D8B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Contacts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>last_name</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>VK Video</t>
+  </si>
+  <si>
+    <t>social_network_subscribers</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,24 +460,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,9 +508,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -530,7 +535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -558,8 +563,11 @@
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="K3" s="3">
+        <v>900</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -586,6 +594,9 @@
       </c>
       <c r="J4" s="3">
         <v>1234567890</v>
+      </c>
+      <c r="K4" s="3">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/event/templates/import_cont.xlsx
+++ b/event/templates/import_cont.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/distr/attendly/event/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/distr/attendly_ddev/event/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABA864-054F-644C-87A0-421E0284D8B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880E3D2E-B9F8-E84D-A304-9CA665FDCD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="3280" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Contacts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>last_name</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>social_network_subscribers</t>
+  </si>
+  <si>
+    <t>producer</t>
+  </si>
+  <si>
+    <t>Фомичева</t>
   </si>
 </sst>
 </file>
@@ -456,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -471,13 +477,14 @@
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,19 +507,22 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -531,11 +541,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -554,20 +564,20 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -587,15 +597,18 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>1234567890</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>500</v>
       </c>
     </row>
